--- a/z_papers/Examples LIBS/example US/Table US Example.xlsx
+++ b/z_papers/Examples LIBS/example US/Table US Example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Final" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="41">
   <si>
     <t>Scenario</t>
   </si>
@@ -146,6 +146,9 @@
   <si>
     <t>BU
 2018</t>
+  </si>
+  <si>
+    <t>B2018</t>
   </si>
 </sst>
 </file>
@@ -635,7 +638,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -899,27 +902,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B14:Z22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" style="13" customWidth="1"/>
-    <col min="4" max="9" width="5" style="13" customWidth="1"/>
-    <col min="10" max="12" width="3.6640625" style="13" customWidth="1"/>
-    <col min="13" max="14" width="4.33203125" style="13" customWidth="1"/>
-    <col min="15" max="15" width="5" style="13" customWidth="1"/>
-    <col min="16" max="21" width="4.33203125" style="13" customWidth="1"/>
-    <col min="22" max="22" width="5.88671875" style="13" customWidth="1"/>
-    <col min="23" max="23" width="4.33203125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="13" customWidth="1"/>
+    <col min="4" max="9" width="5" style="13" hidden="1" customWidth="1"/>
+    <col min="10" max="12" width="3.7109375" style="13" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="4.28515625" style="13" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="5" style="13" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" style="13" hidden="1" customWidth="1"/>
+    <col min="17" max="21" width="4.28515625" style="13" customWidth="1"/>
+    <col min="22" max="22" width="5.85546875" style="13" customWidth="1"/>
+    <col min="23" max="23" width="4.28515625" style="13" customWidth="1"/>
     <col min="24" max="25" width="5" style="13" customWidth="1"/>
-    <col min="26" max="16384" width="9.109375" style="13"/>
+    <col min="26" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="14" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J14" s="14">
         <v>1</v>
       </c>
@@ -963,7 +967,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="76" t="s">
         <v>32</v>
       </c>
@@ -1001,7 +1005,7 @@
       </c>
       <c r="Y16" s="68"/>
     </row>
-    <row r="17" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="77"/>
       <c r="C17" s="61"/>
       <c r="D17" s="69" t="s">
@@ -1030,7 +1034,7 @@
       <c r="S17" s="70"/>
       <c r="T17" s="70"/>
       <c r="U17" s="69" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="V17" s="70"/>
       <c r="W17" s="71"/>
@@ -1041,7 +1045,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="78"/>
       <c r="C18" s="62"/>
       <c r="D18" s="48" t="s">
@@ -1107,7 +1111,7 @@
       <c r="X18" s="73"/>
       <c r="Y18" s="75"/>
     </row>
-    <row r="19" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="57">
         <v>475</v>
       </c>
@@ -1190,7 +1194,7 @@
       </c>
       <c r="Z19" s="24"/>
     </row>
-    <row r="20" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="58"/>
       <c r="C20" s="51" t="s">
         <v>2</v>
@@ -1271,7 +1275,7 @@
       </c>
       <c r="Z20" s="24"/>
     </row>
-    <row r="21" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="59">
         <v>2475</v>
       </c>
@@ -1354,7 +1358,7 @@
       </c>
       <c r="Z21" s="24"/>
     </row>
-    <row r="22" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="58"/>
       <c r="C22" s="51" t="s">
         <v>2</v>
@@ -1466,26 +1470,26 @@
       <selection activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="5" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" style="5"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="5"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="5"/>
-    <col min="17" max="17" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.44140625" style="5"/>
-    <col min="22" max="22" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.44140625" style="5"/>
-    <col min="27" max="27" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.44140625" style="5"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="5"/>
+    <col min="17" max="17" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="5"/>
+    <col min="22" max="22" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" style="5"/>
+    <col min="27" max="27" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1538,7 +1542,7 @@
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
     </row>
-    <row r="2" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="4"/>
       <c r="D2" s="1"/>
@@ -1567,7 +1571,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1620,7 +1624,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1673,7 +1677,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1750,7 +1754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>-4</v>
       </c>
@@ -1827,7 +1831,7 @@
         <v>730.112198547856</v>
       </c>
     </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>0</v>
       </c>
@@ -1904,7 +1908,7 @@
         <v>0.39344854976424798</v>
       </c>
     </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>0.01</v>
       </c>
@@ -1981,7 +1985,7 @@
         <v>0.39731828932399299</v>
       </c>
     </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>1.4384498882876601E-2</v>
       </c>
@@ -2058,7 +2062,7 @@
         <v>0.390940567623351</v>
       </c>
     </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>2.0691380811147901E-2</v>
       </c>
@@ -2135,7 +2139,7 @@
         <v>0.38899115390894701</v>
       </c>
     </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>2.9763514416313201E-2</v>
       </c>
@@ -2212,7 +2216,7 @@
         <v>0.39675485978163799</v>
       </c>
     </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>4.2813323987193903E-2</v>
       </c>
@@ -2289,7 +2293,7 @@
         <v>0.43914675887099602</v>
       </c>
     </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>6.15848211066026E-2</v>
       </c>
@@ -2366,7 +2370,7 @@
         <v>0.50588589173217702</v>
       </c>
     </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>8.8586679041008198E-2</v>
       </c>
@@ -2443,7 +2447,7 @@
         <v>0.59603147132871204</v>
       </c>
     </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>0.12742749857031299</v>
       </c>
@@ -2520,7 +2524,7 @@
         <v>0.67255878197755703</v>
       </c>
     </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>0.183298071083244</v>
       </c>
@@ -2597,7 +2601,7 @@
         <v>0.69313344508592101</v>
       </c>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>0.263665089873036</v>
       </c>
@@ -2674,7 +2678,7 @@
         <v>0.61709988004088601</v>
       </c>
     </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>0.37926901907322502</v>
       </c>
@@ -2751,7 +2755,7 @@
         <v>0.47814643358696701</v>
       </c>
     </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>0.54555947811685201</v>
       </c>
@@ -2828,7 +2832,7 @@
         <v>0.31486096706755801</v>
       </c>
     </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>0.78475997035146094</v>
       </c>
@@ -2905,7 +2909,7 @@
         <v>0.18358560536078999</v>
       </c>
     </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>1</v>
       </c>
@@ -2982,7 +2986,7 @@
         <v>0.124517506990948</v>
       </c>
     </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>1.12883789168469</v>
       </c>
@@ -3059,7 +3063,7 @@
         <v>0.10403267504595599</v>
       </c>
     </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>1.6237767391887199</v>
       </c>
@@ -3136,7 +3140,7 @@
         <v>6.03361835242738E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>2.33572146909012</v>
       </c>
@@ -3213,7 +3217,7 @@
         <v>3.58351255130714E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>3.35981828628378</v>
       </c>
@@ -3290,7 +3294,7 @@
         <v>2.0769524577888401E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>4.8329302385717501</v>
       </c>
@@ -3367,7 +3371,7 @@
         <v>1.2223771517702001E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>6.9519279617756098</v>
       </c>
@@ -3444,7 +3448,7 @@
         <v>5.8484707977540197E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>10</v>
       </c>
@@ -3521,12 +3525,12 @@
         <v>2.4762766509243998E-3</v>
       </c>
     </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>35</v>
       </c>
@@ -3546,7 +3550,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>50</v>
       </c>
@@ -3566,7 +3570,7 @@
         <v>36.924517125332599</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>100</v>
       </c>
@@ -3586,7 +3590,7 @@
         <v>88.068550784163193</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>250</v>
       </c>
@@ -3606,7 +3610,7 @@
         <v>229.10705348755801</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>475</v>
       </c>
@@ -3626,7 +3630,7 @@
         <v>401.07015826686597</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>949</v>
       </c>
@@ -3646,7 +3650,7 @@
         <v>665.40559043344797</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>2475</v>
       </c>
@@ -3666,7 +3670,7 @@
         <v>1172.6101572538</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>5000</v>
       </c>
@@ -3686,7 +3690,7 @@
         <v>1654.4655307083499</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>10000</v>
       </c>
@@ -3706,7 +3710,7 @@
         <v>2233.1039804189099</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>20000</v>
       </c>
@@ -3740,9 +3744,9 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="81" t="s">
         <v>19</v>
       </c>
@@ -3764,7 +3768,7 @@
       <c r="M1" s="79"/>
       <c r="N1" s="79"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
@@ -3790,7 +3794,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>50</v>
       </c>
@@ -3816,7 +3820,7 @@
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>100</v>
       </c>
@@ -3842,7 +3846,7 @@
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
     </row>
-    <row r="5" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>250</v>
       </c>
@@ -3868,7 +3872,7 @@
       <c r="M5" s="37"/>
       <c r="N5" s="37"/>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>475</v>
       </c>
@@ -3894,7 +3898,7 @@
       <c r="M6" s="32"/>
       <c r="N6" s="32"/>
     </row>
-    <row r="7" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>949</v>
       </c>
@@ -3920,7 +3924,7 @@
       <c r="M7" s="37"/>
       <c r="N7" s="37"/>
     </row>
-    <row r="8" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2475</v>
       </c>
@@ -3946,7 +3950,7 @@
       <c r="M8" s="38"/>
       <c r="N8" s="32"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>5000</v>
       </c>
@@ -3972,7 +3976,7 @@
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>10000</v>
       </c>
@@ -3998,7 +4002,7 @@
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>20000</v>
       </c>
@@ -4024,43 +4028,43 @@
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
     </row>
-    <row r="13" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C14" s="30"/>
     </row>
-    <row r="15" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C15" s="30"/>
     </row>
-    <row r="16" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C16" s="30"/>
     </row>
-    <row r="17" spans="2:3" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C17" s="30"/>
     </row>
-    <row r="18" spans="2:3" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="30"/>
     </row>
-    <row r="19" spans="2:3" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="30"/>
     </row>
-    <row r="20" spans="2:3" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="30"/>
     </row>
-    <row r="21" spans="2:3" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="30"/>
     </row>
-    <row r="22" spans="2:3" s="29" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:3" s="29" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:3" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="28"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E52" s="28"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E53" s="28"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E54" s="28"/>
     </row>
   </sheetData>
